--- a/data/financial_statements/socf/ADP.xlsx
+++ b/data/financial_statements/socf/ADP.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -50,6 +170,9 @@
   </si>
   <si>
     <t>Net Aquisitions</t>
+  </si>
+  <si>
+    <t>Short Term Investments Change (Net)</t>
   </si>
   <si>
     <t>Long-Term Investments Change (Net)</t>
@@ -113,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,3686 +587,3778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>813200000</v>
+      </c>
+      <c r="C2">
         <v>779000000</v>
       </c>
-      <c r="C2">
-        <v>625000000</v>
-      </c>
       <c r="D2">
-        <v>929000000</v>
+        <v>625500000</v>
       </c>
       <c r="E2">
-        <v>694000000</v>
+        <v>928500000</v>
       </c>
       <c r="F2">
-        <v>701000000</v>
+        <v>694400000</v>
       </c>
       <c r="G2">
+        <v>700500000</v>
+      </c>
+      <c r="H2">
         <v>538200000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>810700000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>647500000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>602100000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>411600000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>820900000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>651600000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>582400000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>475400000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>753800000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>558200000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>505400000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>140900000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>661000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>670400000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>412600000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>320200000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>588000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>510900000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>368700000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>282000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>532500000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>341400000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>336600000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>336200000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>489600000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>331500000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>295200000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>288800000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>521500000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>377000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>328600000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>227000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>482700000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>389500000</v>
+      </c>
+      <c r="C3">
         <v>394600000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>396300000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>396000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>389900000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>389100000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>381600000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>382500000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>375600000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>375800000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>361600000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>366400000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>360400000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>356800000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>339399900</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>335200100</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>328300000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>330200000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>329100000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>325200000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>340300000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>291900000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>890200000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>98200000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>100700000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>100800000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>97000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>96300000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>96500000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>92900000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>95700000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>95100000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>94400000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>93000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>95300000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>88500000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>90400000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>86800000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>36300000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>100700000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>57300000</v>
+      </c>
+      <c r="C4">
         <v>72400000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>121300000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-23200000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>65500000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>54000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-157900000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8800000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10900000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>54900000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>41900000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>71200000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>32600000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>88800000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>67600000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>33000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>73600000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>94000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>381200000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>68900000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-190900000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>126100000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>75200000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>46000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-78400000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>77300000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>25800000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>34900000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>37800000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>52500000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>37800000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>11800000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>34600000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>208100000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>99300000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-22400000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>37800000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>-26700000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>113600000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>42900000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>-202600000</v>
+      </c>
+      <c r="C5">
         <v>201500000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>47100000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-507600000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>25800000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-51800000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>25400000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-278700000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-7800000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-78700000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>167800000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-82800000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-102000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-96800000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>52800000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>143300000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-430800000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-239200000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-52500000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>97800000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-255400000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-81700000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>113500000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>29600000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-240700000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>121000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>321200000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-434600000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-78900000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-32300000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>37800000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-26800000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-213900000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>27800000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>32400000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-97000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-126200000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>20100000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>163000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-136000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>10200000</v>
+      </c>
+      <c r="C6">
         <v>-30700000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>24900000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-21400000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>42000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-61900000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>27100000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-400000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4500000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5700000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-14700000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-15900000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>27400000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-15100000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-36100000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>6400000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>21300000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-2300000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>29200000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-28400000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>21800000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-24500000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>17900000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-13400000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>20200000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-36300000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-18200000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>20300000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1500000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-19500000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>29300000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-6600000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-500000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-9100000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>19400000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3200000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-4700000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-8300000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>5700000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>12800000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>116000000</v>
+      </c>
+      <c r="C7">
         <v>-194700000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>19300000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>467000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50500000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-413800000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>73800000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>480000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-135800000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-23100000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-43500000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>115800000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-58200000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-91600000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>71500000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-92700000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>365000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>-77800000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>39500000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>38900000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>51100000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>-19000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>26700000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>88000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>121100000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-80100000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-142700000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>450200000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-15100000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>-71900000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-24700000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>195800000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-36600000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-12400000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>40200000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>218700000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>40400000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-35500000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-10000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>100700000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>-283900000</v>
+      </c>
+      <c r="C8">
         <v>-504000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-321500000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-268300000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-174400000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-494200000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-235400000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-150700000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-188500000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-454800000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-148100000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-156900000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-213700000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-391700000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-238300000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-154500000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-133300000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-461100000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-162200000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-28500000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-206900000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-460700000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-986500000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-8800000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>77500000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-221600000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>97800000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>19400000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>23100000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-249200000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-2300000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>98200000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>19400000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-224400000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>29100000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>31400000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-23000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>-283700000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>39900000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>14500000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>899700000</v>
+      </c>
+      <c r="C9">
         <v>718100000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>912900000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>971000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1093700000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>121900000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>652800000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1252200000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>706400000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>481900000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>776600000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1118700000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>698100000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>432800000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>732300000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1024500000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>782300000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>149200000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>705200000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1134900000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>430400000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>244700000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>457200000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>827600000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>511300000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>329800000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>662900000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>719000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>406300000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>109100000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>509800000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>857100000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>228900000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>378200000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>604500000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>743900000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>391700000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>81300000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>575500000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>618300000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>-49700000</v>
+      </c>
+      <c r="C10">
         <v>-45400000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-47600000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-43000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-39900000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-9700000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-22300000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-58300000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-35900000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-43300000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-27600000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-38600000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-43700000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-33400000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-41700000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-40300000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-28900000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-43200000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-46100000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-41300000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-45000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-73300000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-65700000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-54800000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-71000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-48700000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-40900000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-28200000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-28100000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-55600000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-51300000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-27100000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-44300000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-12500000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-41400000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-49200000</v>
-      </c>
-      <c r="AK10">
-        <v>-34400000</v>
       </c>
       <c r="AL10">
         <v>-34400000</v>
       </c>
       <c r="AM10">
+        <v>-34400000</v>
+      </c>
+      <c r="AN10">
         <v>-8000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-47000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-92100000</v>
+      </c>
+      <c r="C11">
         <v>-86300000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-96700000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-101600000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-87500000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-93200000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-87100000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-92100000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-71700000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-76400000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-182700000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-93300000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-79500000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-88200000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-74600000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-190600000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-65500000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-73800000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-68900000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-63400000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-62700000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-69700000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-68300000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-55500000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-49400000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-57200000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-57400000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-54400000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-60300000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-45400000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-45100000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-47200000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-40500000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-43900000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-37100000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-35100000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-40500000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-30900000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-23500000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-22400000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>-14400000</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>-11700000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-5100000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-700000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-119700000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>0</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-125000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-487400000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-700000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-66700000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>234000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-20000000</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
       </c>
       <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>-300000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>162500000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>98600000</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <v>-188100000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>0</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>24400000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-26700000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-14600000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>2525600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>-2261200000</v>
+      </c>
+      <c r="C14">
         <v>-1445900000</v>
       </c>
-      <c r="C13">
+      <c r="D14">
         <v>-906400000</v>
       </c>
-      <c r="D13">
+      <c r="E14">
         <v>-2350700000</v>
       </c>
-      <c r="E13">
+      <c r="F14">
         <v>-2092900000</v>
       </c>
-      <c r="F13">
+      <c r="G14">
         <v>-1133500000</v>
       </c>
-      <c r="G13">
+      <c r="H14">
         <v>-1039200000</v>
       </c>
-      <c r="H13">
+      <c r="I14">
         <v>-1266400000</v>
       </c>
-      <c r="I13">
+      <c r="J14">
         <v>-1106200000</v>
       </c>
-      <c r="J13">
+      <c r="K14">
         <v>383900000</v>
       </c>
-      <c r="K13">
+      <c r="L14">
         <v>2888000200</v>
       </c>
-      <c r="L13">
+      <c r="M14">
         <v>735399900</v>
       </c>
-      <c r="M13">
+      <c r="N14">
         <v>-123900000</v>
       </c>
-      <c r="N13">
+      <c r="O14">
         <v>243799900</v>
       </c>
-      <c r="O13">
+      <c r="P14">
         <v>-878400000</v>
       </c>
-      <c r="P13">
+      <c r="Q14">
         <v>-497800000</v>
       </c>
-      <c r="Q13">
+      <c r="R14">
         <v>78600000</v>
       </c>
-      <c r="R13">
+      <c r="S14">
         <v>-216000000</v>
       </c>
-      <c r="S13">
+      <c r="T14">
         <v>-431600000</v>
       </c>
-      <c r="T13">
+      <c r="U14">
         <v>-402000000</v>
       </c>
-      <c r="U13">
+      <c r="V14">
         <v>-438600000</v>
       </c>
-      <c r="V13">
+      <c r="W14">
         <v>-149600000</v>
       </c>
-      <c r="W13">
+      <c r="X14">
         <v>-23799800</v>
       </c>
-      <c r="X13">
+      <c r="Y14">
         <v>-283899900</v>
       </c>
-      <c r="Y13">
+      <c r="Z14">
         <v>-210500000</v>
       </c>
-      <c r="Z13">
+      <c r="AA14">
         <v>-271000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB14">
         <v>-481199900</v>
       </c>
-      <c r="AB13">
+      <c r="AC14">
         <v>-404400000</v>
       </c>
-      <c r="AC13">
+      <c r="AD14">
         <v>-170800100</v>
       </c>
-      <c r="AD13">
+      <c r="AE14">
         <v>395500100</v>
       </c>
-      <c r="AE13">
+      <c r="AF14">
         <v>-457899800</v>
       </c>
-      <c r="AF13">
+      <c r="AG14">
         <v>-270000200</v>
       </c>
-      <c r="AG13">
+      <c r="AH14">
         <v>-179700000</v>
       </c>
-      <c r="AH13">
+      <c r="AI14">
         <v>-299000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ14">
         <v>-743000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK14">
         <v>-426600000</v>
       </c>
-      <c r="AK13">
+      <c r="AL14">
         <v>-388300000</v>
       </c>
-      <c r="AL13">
+      <c r="AM14">
         <v>202500000</v>
       </c>
-      <c r="AM13">
+      <c r="AN14">
         <v>-287899900</v>
       </c>
-      <c r="AN13">
+      <c r="AO14">
         <v>-652900100</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>-15591000000</v>
       </c>
-      <c r="C14">
+      <c r="D15">
         <v>-8044000000</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <v>13636000000</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>-634000000</v>
       </c>
-      <c r="F14">
+      <c r="G15">
         <v>12084000000</v>
       </c>
-      <c r="G14">
+      <c r="H15">
         <v>-6738000000</v>
       </c>
-      <c r="H14">
+      <c r="I15">
         <v>4998000000</v>
       </c>
-      <c r="I14">
+      <c r="J15">
         <v>6880000000</v>
       </c>
-      <c r="J14">
+      <c r="K15">
         <v>3151000000</v>
       </c>
-      <c r="K14">
+      <c r="L15">
         <v>-4548000000</v>
       </c>
-      <c r="L14">
+      <c r="M15">
         <v>-5705000000</v>
       </c>
-      <c r="M14">
+      <c r="N15">
         <v>8091000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC15">
         <v>-9906700000</v>
       </c>
-      <c r="AC14">
+      <c r="AD15">
         <v>-5925400000</v>
       </c>
-      <c r="AD14">
+      <c r="AE15">
         <v>-137800000</v>
       </c>
-      <c r="AE14">
+      <c r="AF15">
         <v>4171900000</v>
       </c>
-      <c r="AF14">
+      <c r="AG15">
         <v>6247600000</v>
       </c>
-      <c r="AG14">
+      <c r="AH15">
         <v>-13382400000</v>
       </c>
-      <c r="AH14">
+      <c r="AI15">
         <v>810600000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ15">
         <v>5813300000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK15">
         <v>2531800000</v>
       </c>
-      <c r="AK14">
+      <c r="AL15">
         <v>-8264700000</v>
       </c>
-      <c r="AL14">
+      <c r="AM15">
         <v>2366900000</v>
       </c>
-      <c r="AM14">
+      <c r="AN15">
         <v>7687100000</v>
       </c>
-      <c r="AN14">
+      <c r="AO15">
         <v>-6038700000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>108200000</v>
+      </c>
+      <c r="C16">
         <v>-1577600000</v>
       </c>
-      <c r="C15">
+      <c r="D16">
         <v>-1050700000</v>
       </c>
-      <c r="D15">
+      <c r="E16">
         <v>-2495300000</v>
       </c>
-      <c r="E15">
+      <c r="F16">
         <v>-2232000000</v>
       </c>
-      <c r="F15">
+      <c r="G16">
         <v>-1236400000</v>
       </c>
-      <c r="G15">
+      <c r="H16">
         <v>-1148600000</v>
       </c>
-      <c r="H15">
+      <c r="I16">
         <v>-1416800000</v>
       </c>
-      <c r="I15">
+      <c r="J16">
         <v>-1213800000</v>
       </c>
-      <c r="J15">
+      <c r="K16">
         <v>264200000</v>
       </c>
-      <c r="K15">
+      <c r="L16">
         <v>2677700000</v>
       </c>
-      <c r="L15">
+      <c r="M16">
         <v>603500000</v>
       </c>
-      <c r="M15">
+      <c r="N16">
         <v>-247100000</v>
       </c>
-      <c r="N15">
+      <c r="O16">
         <v>122200000</v>
       </c>
-      <c r="O15">
+      <c r="P16">
         <v>-999800000</v>
       </c>
-      <c r="P15">
+      <c r="Q16">
         <v>-728700000</v>
       </c>
-      <c r="Q15">
+      <c r="R16">
         <v>-16500000</v>
       </c>
-      <c r="R15">
+      <c r="S16">
         <v>-452700000</v>
       </c>
-      <c r="S15">
+      <c r="T16">
         <v>-546600000</v>
       </c>
-      <c r="T15">
+      <c r="U16">
         <v>-631700000</v>
       </c>
-      <c r="U15">
+      <c r="V16">
         <v>-1033700000</v>
       </c>
-      <c r="V15">
+      <c r="W16">
         <v>-292600000</v>
       </c>
-      <c r="W15">
+      <c r="X16">
         <v>-158500000</v>
       </c>
-      <c r="X15">
+      <c r="Y16">
         <v>-460900000</v>
       </c>
-      <c r="Y15">
+      <c r="Z16">
         <v>-96900000</v>
       </c>
-      <c r="Z15">
+      <c r="AA16">
         <v>-396900000</v>
       </c>
-      <c r="AA15">
+      <c r="AB16">
         <v>15390400000</v>
       </c>
-      <c r="AB15">
+      <c r="AC16">
         <v>-10393700000</v>
       </c>
-      <c r="AC15">
+      <c r="AD16">
         <v>-6184900000</v>
       </c>
-      <c r="AD15">
+      <c r="AE16">
         <v>319200000</v>
       </c>
-      <c r="AE15">
+      <c r="AF16">
         <v>3716200000</v>
       </c>
-      <c r="AF15">
+      <c r="AG16">
         <v>5903300000</v>
       </c>
-      <c r="AG15">
+      <c r="AH16">
         <v>-13646900000</v>
       </c>
-      <c r="AH15">
+      <c r="AI16">
         <v>267100000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ16">
         <v>4991800000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK16">
         <v>2045300000</v>
       </c>
-      <c r="AK15">
+      <c r="AL16">
         <v>-8727900000</v>
       </c>
-      <c r="AL15">
+      <c r="AM16">
         <v>2504100000</v>
       </c>
-      <c r="AM15">
+      <c r="AN16">
         <v>7341000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO16">
         <v>-6775600000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>7494900000</v>
+      </c>
+      <c r="C17">
         <v>-15592200000</v>
       </c>
-      <c r="C16">
+      <c r="D17">
         <v>-7978300000</v>
       </c>
-      <c r="D16">
+      <c r="E17">
         <v>13620000000</v>
       </c>
-      <c r="E16">
+      <c r="F17">
         <v>-685100000</v>
       </c>
-      <c r="F16">
+      <c r="G17">
         <v>12100400000</v>
       </c>
-      <c r="G16">
+      <c r="H17">
         <v>-5673500000</v>
       </c>
-      <c r="H16">
+      <c r="I17">
         <v>4963000000</v>
       </c>
-      <c r="I16">
+      <c r="J17">
         <v>6832600000</v>
       </c>
-      <c r="J16">
+      <c r="K17">
         <v>3193800000</v>
       </c>
-      <c r="K16">
+      <c r="L17">
         <v>-4565300000</v>
       </c>
-      <c r="L16">
+      <c r="M17">
         <v>-5742700000</v>
       </c>
-      <c r="M16">
+      <c r="N17">
         <v>11619700000</v>
       </c>
-      <c r="N16">
+      <c r="O17">
         <v>-4527100000</v>
       </c>
-      <c r="O16">
+      <c r="P17">
         <v>-6916500000</v>
       </c>
-      <c r="P16">
+      <c r="Q17">
         <v>8972600000</v>
       </c>
-      <c r="Q16">
+      <c r="R17">
         <v>1349800000</v>
       </c>
-      <c r="R16">
+      <c r="S17">
         <v>-1712000000</v>
       </c>
-      <c r="S16">
+      <c r="T17">
         <v>-6360300000</v>
       </c>
-      <c r="T16">
+      <c r="U17">
         <v>-507400000</v>
       </c>
-      <c r="U16">
+      <c r="V17">
         <v>8876000000</v>
       </c>
-      <c r="V16">
+      <c r="W17">
         <v>-1675200000</v>
       </c>
-      <c r="W16">
+      <c r="X17">
         <v>-6757800000</v>
       </c>
-      <c r="X16">
+      <c r="Y17">
         <v>3436100000</v>
       </c>
-      <c r="Y16">
+      <c r="Z17">
         <v>6127900000</v>
       </c>
-      <c r="Z16">
+      <c r="AA17">
         <v>-8928800000</v>
       </c>
-      <c r="AA16">
+      <c r="AB17">
         <v>-7295300000</v>
       </c>
-      <c r="AB16">
+      <c r="AC17">
         <v>10316700000</v>
       </c>
-      <c r="AC16">
+      <c r="AD17">
         <v>6068000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE17">
         <v>1710700000</v>
       </c>
-      <c r="AE16">
+      <c r="AF17">
         <v>-3737400000</v>
       </c>
-      <c r="AF16">
+      <c r="AG17">
         <v>-5910800000</v>
       </c>
-      <c r="AG16">
+      <c r="AH17">
         <v>13736600000</v>
       </c>
-      <c r="AH16">
+      <c r="AI17">
         <v>-189300000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ17">
         <v>-4921000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK17">
         <v>-2142200000</v>
       </c>
-      <c r="AK16">
+      <c r="AL17">
         <v>9062000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM17">
         <v>-2818600000</v>
       </c>
-      <c r="AM16">
+      <c r="AN17">
         <v>-7700100000</v>
       </c>
-      <c r="AN16">
+      <c r="AO17">
         <v>6685900000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>-196400000</v>
+      </c>
+      <c r="C18">
         <v>-332300000</v>
       </c>
-      <c r="C17">
+      <c r="D18">
         <v>-464500000</v>
       </c>
-      <c r="D17">
+      <c r="E18">
         <v>-468300000</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>-395400000</v>
       </c>
-      <c r="F17">
+      <c r="G18">
         <v>-544700000</v>
       </c>
-      <c r="G17">
+      <c r="H18">
         <v>-439200000</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>-393000000</v>
       </c>
-      <c r="I17">
+      <c r="J18">
         <v>-214500000</v>
       </c>
-      <c r="J17">
+      <c r="K18">
         <v>-221500000</v>
       </c>
-      <c r="K17">
+      <c r="L18">
         <v>16700000</v>
       </c>
-      <c r="L17">
+      <c r="M18">
         <v>-353500000</v>
       </c>
-      <c r="M17">
+      <c r="N18">
         <v>-277700000</v>
       </c>
-      <c r="N17">
+      <c r="O18">
         <v>-341800000</v>
       </c>
-      <c r="O17">
+      <c r="P18">
         <v>-154700000</v>
       </c>
-      <c r="P17">
+      <c r="Q18">
         <v>-189000000</v>
       </c>
-      <c r="Q17">
+      <c r="R18">
         <v>-269600000</v>
       </c>
-      <c r="R17">
+      <c r="S18">
         <v>-251500000</v>
       </c>
-      <c r="S17">
+      <c r="T18">
         <v>-369900000</v>
       </c>
-      <c r="T17">
+      <c r="U18">
         <v>-136300000</v>
       </c>
-      <c r="U17">
+      <c r="V18">
         <v>-148600000</v>
       </c>
-      <c r="V17">
+      <c r="W18">
         <v>-265200000</v>
       </c>
-      <c r="W17">
+      <c r="X18">
         <v>-281600000</v>
       </c>
-      <c r="X17">
+      <c r="Y18">
         <v>-136200000</v>
       </c>
-      <c r="Y17">
+      <c r="Z18">
         <v>-403100000</v>
       </c>
-      <c r="Z17">
+      <c r="AA18">
         <v>-343000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB18">
         <v>-42100000</v>
       </c>
-      <c r="AB17">
+      <c r="AC18">
         <v>-268600000</v>
       </c>
-      <c r="AC17">
+      <c r="AD18">
         <v>-439600000</v>
       </c>
-      <c r="AD17">
+      <c r="AE18">
         <v>-330100000</v>
       </c>
-      <c r="AE17">
+      <c r="AF18">
         <v>-408200000</v>
       </c>
-      <c r="AF17">
+      <c r="AG18">
         <v>-606500000</v>
       </c>
-      <c r="AG17">
+      <c r="AH18">
         <v>-388700000</v>
       </c>
-      <c r="AH17">
+      <c r="AI18">
         <v>-44700000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ18">
         <v>-154300000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK18">
         <v>-4200000</v>
       </c>
-      <c r="AK17">
+      <c r="AL18">
         <v>-66500000</v>
       </c>
-      <c r="AL17">
+      <c r="AM18">
         <v>-248100000</v>
       </c>
-      <c r="AM17">
+      <c r="AN18">
         <v>-228900000</v>
       </c>
-      <c r="AN17">
+      <c r="AO18">
         <v>-35300000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>-432600000</v>
+      </c>
+      <c r="C19">
         <v>-432900000</v>
       </c>
-      <c r="C18">
+      <c r="D19">
         <v>-434300000</v>
       </c>
-      <c r="D18">
+      <c r="E19">
         <v>-437700000</v>
       </c>
-      <c r="E18">
+      <c r="F19">
         <v>-393800000</v>
       </c>
-      <c r="F18">
+      <c r="G19">
         <v>-393200000</v>
       </c>
-      <c r="G18">
+      <c r="H19">
         <v>-396000000</v>
       </c>
-      <c r="H18">
+      <c r="I19">
         <v>-397800000</v>
       </c>
-      <c r="I18">
+      <c r="J19">
         <v>-390700000</v>
       </c>
-      <c r="J18">
+      <c r="K19">
         <v>-391000000</v>
       </c>
-      <c r="K18">
+      <c r="L19">
         <v>-391600000</v>
       </c>
-      <c r="L18">
+      <c r="M19">
         <v>-392900000</v>
       </c>
-      <c r="M18">
+      <c r="N19">
         <v>-342700000</v>
       </c>
-      <c r="N18">
+      <c r="O19">
         <v>-343300000</v>
       </c>
-      <c r="O18">
+      <c r="P19">
         <v>-343400000</v>
       </c>
-      <c r="P18">
+      <c r="Q19">
         <v>-344600000</v>
       </c>
-      <c r="Q18">
+      <c r="R19">
         <v>-302400000</v>
       </c>
-      <c r="R18">
+      <c r="S19">
         <v>-302600000</v>
       </c>
-      <c r="S18">
+      <c r="T19">
         <v>-278600000</v>
       </c>
-      <c r="T18">
+      <c r="U19">
         <v>-278400000</v>
       </c>
-      <c r="U18">
+      <c r="V19">
         <v>-253000000</v>
       </c>
-      <c r="V18">
+      <c r="W19">
         <v>-253700000</v>
       </c>
-      <c r="W18">
+      <c r="X19">
         <v>-255800000</v>
       </c>
-      <c r="X18">
+      <c r="Y19">
         <v>-257100000</v>
       </c>
-      <c r="Y18">
+      <c r="Z19">
         <v>-240500000</v>
       </c>
-      <c r="Z18">
+      <c r="AA19">
         <v>-241800000</v>
       </c>
-      <c r="AA18">
+      <c r="AB19">
         <v>-242400000</v>
       </c>
-      <c r="AB18">
+      <c r="AC19">
         <v>-242400000</v>
       </c>
-      <c r="AC18">
+      <c r="AD19">
         <v>-229800000</v>
       </c>
-      <c r="AD18">
+      <c r="AE19">
         <v>-229000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF19">
         <v>-231400000</v>
       </c>
-      <c r="AF18">
+      <c r="AG19">
         <v>-234900000</v>
       </c>
-      <c r="AG18">
+      <c r="AH19">
         <v>-231500000</v>
       </c>
-      <c r="AH18">
+      <c r="AI19">
         <v>-229800000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ19">
         <v>-231100000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK19">
         <v>-231200000</v>
       </c>
-      <c r="AK18">
+      <c r="AL19">
         <v>-210200000</v>
       </c>
-      <c r="AL18">
+      <c r="AM19">
         <v>-210600000</v>
       </c>
-      <c r="AM18">
+      <c r="AN19">
         <v>-210800000</v>
       </c>
-      <c r="AN18">
+      <c r="AO19">
         <v>-210400000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>-187600000</v>
+      </c>
+      <c r="C20">
         <v>54800000</v>
       </c>
-      <c r="C19">
+      <c r="D20">
         <v>151800000</v>
       </c>
-      <c r="D19">
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="F20">
         <v>-45800000</v>
       </c>
-      <c r="F19">
+      <c r="G20">
         <v>22300000</v>
       </c>
-      <c r="G19">
+      <c r="H20">
         <v>22500000</v>
       </c>
-      <c r="H19">
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="J20">
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="K20">
         <v>-57200000</v>
       </c>
-      <c r="K19">
+      <c r="L20">
         <v>13600000</v>
       </c>
-      <c r="L19">
+      <c r="M20">
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="N20">
         <v>-428300000</v>
       </c>
-      <c r="N19">
+      <c r="O20">
         <v>166300000</v>
       </c>
-      <c r="O19">
+      <c r="P20">
         <v>261500000</v>
       </c>
-      <c r="P19">
+      <c r="Q20">
         <v>-5300000</v>
       </c>
-      <c r="R19">
+      <c r="S20">
         <v>448400000</v>
       </c>
-      <c r="S19">
+      <c r="T20">
         <v>-5300000</v>
       </c>
-      <c r="V19">
+      <c r="W20">
         <v>129400000</v>
       </c>
-      <c r="AA19">
+      <c r="AB20">
         <v>-100000</v>
       </c>
-      <c r="AB19">
+      <c r="AC20">
         <v>100000</v>
       </c>
-      <c r="AC19">
+      <c r="AD20">
         <v>0</v>
       </c>
-      <c r="AD19">
+      <c r="AE20">
         <v>-23400000</v>
       </c>
-      <c r="AE19">
+      <c r="AF20">
         <v>-24500000</v>
       </c>
-      <c r="AF19">
+      <c r="AG20">
         <v>-600000</v>
       </c>
-      <c r="AG19">
+      <c r="AH20">
         <v>4200000</v>
       </c>
-      <c r="AH19">
+      <c r="AI20">
         <v>45800000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ20">
         <v>12400000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK20">
         <v>-3700000</v>
       </c>
-      <c r="AK19">
+      <c r="AL20">
         <v>-330700000</v>
       </c>
-      <c r="AL19">
+      <c r="AM20">
         <v>139800000</v>
       </c>
-      <c r="AM19">
+      <c r="AN20">
         <v>277100000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>6678300000</v>
+      </c>
+      <c r="C21">
         <v>-16302600000</v>
       </c>
-      <c r="C20">
+      <c r="D21">
         <v>-8725300000</v>
       </c>
-      <c r="D20">
+      <c r="E21">
         <v>12714000000</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>-1520100000</v>
       </c>
-      <c r="F20">
+      <c r="G21">
         <v>11184800000</v>
       </c>
-      <c r="G20">
+      <c r="H21">
         <v>-6486200000</v>
       </c>
-      <c r="H20">
+      <c r="I21">
         <v>4172200000</v>
       </c>
-      <c r="I20">
+      <c r="J21">
         <v>6227400000</v>
       </c>
-      <c r="J20">
+      <c r="K21">
         <v>2524100000</v>
       </c>
-      <c r="K20">
+      <c r="L21">
         <v>-4926600000</v>
       </c>
-      <c r="L20">
+      <c r="M21">
         <v>-6489100000</v>
       </c>
-      <c r="M20">
+      <c r="N21">
         <v>10571000000</v>
       </c>
-      <c r="N20">
+      <c r="O21">
         <v>-5045900000</v>
       </c>
-      <c r="O20">
+      <c r="P21">
         <v>-7153100000</v>
       </c>
-      <c r="P20">
+      <c r="Q21">
         <v>8433700000</v>
       </c>
-      <c r="Q20">
+      <c r="R21">
         <v>329400000</v>
       </c>
-      <c r="R20">
+      <c r="S21">
         <v>-1817700000</v>
       </c>
-      <c r="S20">
+      <c r="T21">
         <v>-7014100000</v>
       </c>
-      <c r="T20">
+      <c r="U21">
         <v>-922100000</v>
       </c>
-      <c r="U20">
+      <c r="V21">
         <v>8345000000</v>
       </c>
-      <c r="V20">
+      <c r="W21">
         <v>-2064700000</v>
       </c>
-      <c r="W20">
+      <c r="X21">
         <v>-7295200000</v>
       </c>
-      <c r="X20">
+      <c r="Y21">
         <v>3042800000</v>
       </c>
-      <c r="Y20">
+      <c r="Z21">
         <v>5484300000</v>
       </c>
-      <c r="Z20">
+      <c r="AA21">
         <v>-9513600000</v>
       </c>
-      <c r="AA20">
+      <c r="AB21">
         <v>-7579900000</v>
       </c>
-      <c r="AB20">
+      <c r="AC21">
         <v>9805800000</v>
       </c>
-      <c r="AC20">
+      <c r="AD21">
         <v>5398600000</v>
       </c>
-      <c r="AD20">
+      <c r="AE21">
         <v>1128200000</v>
       </c>
-      <c r="AE20">
+      <c r="AF21">
         <v>-4401500000</v>
       </c>
-      <c r="AF20">
+      <c r="AG21">
         <v>-6752800000</v>
       </c>
-      <c r="AG20">
+      <c r="AH21">
         <v>13120600000</v>
       </c>
-      <c r="AH20">
+      <c r="AI21">
         <v>-418000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ21">
         <v>-5294000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK21">
         <v>-2381300000</v>
       </c>
-      <c r="AK20">
+      <c r="AL21">
         <v>8454600000</v>
       </c>
-      <c r="AL20">
+      <c r="AM21">
         <v>-3137500000</v>
       </c>
-      <c r="AM20">
+      <c r="AN21">
         <v>-7862700000</v>
       </c>
-      <c r="AN20">
+      <c r="AO21">
         <v>6426700000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22">
+        <v>20300000</v>
+      </c>
+      <c r="C22">
         <v>-44900000</v>
       </c>
-      <c r="C21">
+      <c r="D22">
         <v>-84500000</v>
       </c>
-      <c r="D21">
+      <c r="E22">
         <v>6700000</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <v>300000</v>
       </c>
-      <c r="F21">
+      <c r="G22">
         <v>-21200000</v>
       </c>
-      <c r="G21">
+      <c r="H22">
         <v>3400000</v>
       </c>
-      <c r="H21">
+      <c r="I22">
         <v>-14300000</v>
       </c>
-      <c r="I21">
+      <c r="J22">
         <v>46800000</v>
       </c>
-      <c r="J21">
+      <c r="K22">
         <v>37900000</v>
       </c>
-      <c r="K21">
+      <c r="L22">
         <v>6900000</v>
       </c>
-      <c r="L21">
+      <c r="M22">
         <v>-29200000</v>
       </c>
-      <c r="M21">
+      <c r="N22">
         <v>20900000</v>
       </c>
-      <c r="N21">
+      <c r="O22">
         <v>-33100000</v>
       </c>
-      <c r="O21">
+      <c r="P22">
         <v>5300000</v>
       </c>
-      <c r="P21">
+      <c r="Q22">
         <v>-2000000</v>
       </c>
-      <c r="Q21">
+      <c r="R22">
         <v>-19500000</v>
       </c>
-      <c r="R21">
+      <c r="S22">
         <v>-12600000</v>
       </c>
-      <c r="S21">
+      <c r="T22">
         <v>-47300000</v>
       </c>
-      <c r="T21">
+      <c r="U22">
         <v>4000000</v>
       </c>
-      <c r="U21">
+      <c r="V22">
         <v>34900000</v>
       </c>
-      <c r="V21">
+      <c r="W22">
         <v>14200000</v>
       </c>
-      <c r="W21">
+      <c r="X22">
         <v>73100000</v>
       </c>
-      <c r="X21">
+      <c r="Y22">
         <v>-26000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z22">
         <v>-38800000</v>
       </c>
-      <c r="Z21">
+      <c r="AA22">
         <v>-16300000</v>
       </c>
-      <c r="AA21">
+      <c r="AB22">
         <v>-3200000</v>
       </c>
-      <c r="AB21">
+      <c r="AC22">
         <v>15400000</v>
       </c>
-      <c r="AC21">
+      <c r="AD22">
         <v>-9800000</v>
       </c>
-      <c r="AD21">
+      <c r="AE22">
         <v>-11100000</v>
       </c>
-      <c r="AE21">
+      <c r="AF22">
         <v>6200000</v>
       </c>
-      <c r="AF21">
+      <c r="AG22">
         <v>-49800000</v>
       </c>
-      <c r="AG21">
+      <c r="AH22">
         <v>-27500000</v>
       </c>
-      <c r="AH21">
+      <c r="AI22">
         <v>-35200000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ22">
         <v>10300000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK22">
         <v>-4000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL22">
         <v>-300000</v>
       </c>
-      <c r="AL21">
+      <c r="AM22">
         <v>2000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN22">
         <v>-2400000</v>
       </c>
-      <c r="AN21">
+      <c r="AO22">
         <v>-12600000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>7706500000</v>
+      </c>
+      <c r="C23">
         <v>-17207000000</v>
       </c>
-      <c r="C22">
+      <c r="D23">
         <v>-8947600000</v>
       </c>
-      <c r="D22">
+      <c r="E23">
         <v>11196400000</v>
       </c>
-      <c r="E22">
+      <c r="F23">
         <v>-2658100000</v>
       </c>
-      <c r="F22">
+      <c r="G23">
         <v>10049100000</v>
       </c>
-      <c r="G22">
+      <c r="H23">
         <v>-6978600000</v>
       </c>
-      <c r="H22">
+      <c r="I23">
         <v>3993300000</v>
       </c>
-      <c r="I22">
+      <c r="J23">
         <v>5766800000</v>
       </c>
-      <c r="J22">
+      <c r="K23">
         <v>3308100000</v>
       </c>
-      <c r="K22">
+      <c r="L23">
         <v>-1465400000</v>
       </c>
-      <c r="L22">
+      <c r="M23">
         <v>-4796100000</v>
       </c>
-      <c r="M22">
+      <c r="N23">
         <v>11042900000</v>
       </c>
-      <c r="N22">
+      <c r="O23">
         <v>-4524000000</v>
       </c>
-      <c r="O22">
+      <c r="P23">
         <v>-7415300000</v>
       </c>
-      <c r="P22">
+      <c r="Q23">
         <v>8727500000</v>
       </c>
-      <c r="Q22">
+      <c r="R23">
         <v>1075700000</v>
       </c>
-      <c r="R22">
+      <c r="S23">
         <v>-2133800000</v>
       </c>
-      <c r="S22">
+      <c r="T23">
         <v>-6902800000</v>
       </c>
-      <c r="T22">
+      <c r="U23">
         <v>-414900000</v>
       </c>
-      <c r="U22">
+      <c r="V23">
         <v>7776600000</v>
       </c>
-      <c r="V22">
+      <c r="W23">
         <v>-2098400000</v>
       </c>
-      <c r="W22">
+      <c r="X23">
         <v>-6923400000</v>
       </c>
-      <c r="X22">
+      <c r="Y23">
         <v>3383500000</v>
       </c>
-      <c r="Y22">
+      <c r="Z23">
         <v>5859900000</v>
       </c>
-      <c r="Z22">
+      <c r="AA23">
         <v>-9597000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB23">
         <v>8470200000</v>
       </c>
-      <c r="AB22">
+      <c r="AC23">
         <v>146500000</v>
       </c>
-      <c r="AC22">
+      <c r="AD23">
         <v>-389800000</v>
       </c>
-      <c r="AD22">
+      <c r="AE23">
         <v>1545400000</v>
       </c>
-      <c r="AE22">
+      <c r="AF23">
         <v>-169300000</v>
       </c>
-      <c r="AF22">
+      <c r="AG23">
         <v>-42200000</v>
       </c>
-      <c r="AG22">
+      <c r="AH23">
         <v>-324900000</v>
       </c>
-      <c r="AH22">
+      <c r="AI23">
         <v>192100000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ23">
         <v>312600000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK23">
         <v>403900000</v>
       </c>
-      <c r="AK22">
+      <c r="AL23">
         <v>118100000</v>
       </c>
-      <c r="AL22">
+      <c r="AM23">
         <v>-550100000</v>
       </c>
-      <c r="AM22">
+      <c r="AN23">
         <v>51400000</v>
       </c>
-      <c r="AN22">
+      <c r="AO23">
         <v>256800000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>22783000000</v>
       </c>
-      <c r="C23">
+      <c r="D24">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="E24">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="F24">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="G24">
         <v>13143200000</v>
       </c>
-      <c r="G23">
+      <c r="H24">
         <v>0</v>
       </c>
-      <c r="H23">
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="J24">
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="K24">
         <v>7053600000</v>
       </c>
-      <c r="K23">
+      <c r="L24">
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="M24">
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="N24">
         <v>0</v>
       </c>
-      <c r="N23">
+      <c r="O24">
         <v>6796200000</v>
       </c>
-      <c r="O23">
+      <c r="P24">
         <v>0</v>
       </c>
-      <c r="P23">
+      <c r="Q24">
         <v>0</v>
       </c>
-      <c r="Q23">
+      <c r="R24">
         <v>0</v>
       </c>
-      <c r="R23">
+      <c r="S24">
         <v>6542100000</v>
       </c>
-      <c r="S23">
+      <c r="T24">
         <v>0</v>
       </c>
-      <c r="T23">
+      <c r="U24">
         <v>0</v>
       </c>
-      <c r="U23">
+      <c r="V24">
         <v>0</v>
       </c>
-      <c r="V23">
+      <c r="W24">
         <v>8181600000</v>
       </c>
-      <c r="W23">
+      <c r="X24">
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="Y24">
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="Z24">
         <v>0</v>
       </c>
-      <c r="Z23">
+      <c r="AA24">
         <v>15458600000</v>
       </c>
-      <c r="AA23">
+      <c r="AB24">
         <v>4047000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC24">
         <v>0</v>
       </c>
-      <c r="AC23">
+      <c r="AD24">
         <v>0</v>
       </c>
-      <c r="AD23">
+      <c r="AE24">
         <v>1639300000</v>
       </c>
-      <c r="AE23">
+      <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AF23">
+      <c r="AG24">
         <v>0</v>
       </c>
-      <c r="AG23">
+      <c r="AH24">
         <v>0</v>
       </c>
-      <c r="AH23">
+      <c r="AI24">
         <v>1983600000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ24">
         <v>0</v>
       </c>
-      <c r="AJ23">
+      <c r="AK24">
         <v>0</v>
       </c>
-      <c r="AK23">
+      <c r="AL24">
         <v>0</v>
       </c>
-      <c r="AL23">
+      <c r="AM24">
         <v>1699100000</v>
       </c>
-      <c r="AM23">
+      <c r="AN24">
         <v>0</v>
       </c>
-      <c r="AN23">
+      <c r="AO24">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>7706500000</v>
+      </c>
+      <c r="C25">
         <v>5576000000</v>
       </c>
-      <c r="C24">
+      <c r="D25">
         <v>-8947600000</v>
       </c>
-      <c r="D24">
+      <c r="E25">
         <v>11196400000</v>
       </c>
-      <c r="E24">
+      <c r="F25">
         <v>-2658100000</v>
       </c>
-      <c r="F24">
+      <c r="G25">
         <v>23192300000</v>
       </c>
-      <c r="G24">
+      <c r="H25">
         <v>-6978600000</v>
       </c>
-      <c r="H24">
+      <c r="I25">
         <v>3993300000</v>
       </c>
-      <c r="I24">
+      <c r="J25">
         <v>5766800000</v>
       </c>
-      <c r="J24">
+      <c r="K25">
         <v>10361700000</v>
       </c>
-      <c r="K24">
+      <c r="L25">
         <v>-1465400000</v>
       </c>
-      <c r="L24">
+      <c r="M25">
         <v>-4796100000</v>
       </c>
-      <c r="M24">
+      <c r="N25">
         <v>11042900000</v>
       </c>
-      <c r="N24">
+      <c r="O25">
         <v>2272200000</v>
       </c>
-      <c r="O24">
+      <c r="P25">
         <v>-7415300000</v>
       </c>
-      <c r="P24">
+      <c r="Q25">
         <v>8727500000</v>
       </c>
-      <c r="Q24">
+      <c r="R25">
         <v>1075700000</v>
       </c>
-      <c r="R24">
+      <c r="S25">
         <v>4408300000</v>
       </c>
-      <c r="S24">
+      <c r="T25">
         <v>-6902800000</v>
       </c>
-      <c r="T24">
+      <c r="U25">
         <v>-414900000</v>
       </c>
-      <c r="U24">
+      <c r="V25">
         <v>7776600000</v>
       </c>
-      <c r="V24">
+      <c r="W25">
         <v>6083200000</v>
       </c>
-      <c r="W24">
+      <c r="X25">
         <v>-6923400000</v>
       </c>
-      <c r="X24">
+      <c r="Y25">
         <v>3383500000</v>
       </c>
-      <c r="Y24">
+      <c r="Z25">
         <v>5859900000</v>
       </c>
-      <c r="Z24">
+      <c r="AA25">
         <v>5861600000</v>
       </c>
-      <c r="AA24">
+      <c r="AB25">
         <v>12517200000</v>
       </c>
-      <c r="AB24">
+      <c r="AC25">
         <v>146500000</v>
       </c>
-      <c r="AC24">
+      <c r="AD25">
         <v>-389800000</v>
       </c>
-      <c r="AD24">
+      <c r="AE25">
         <v>3184700000</v>
       </c>
-      <c r="AE24">
+      <c r="AF25">
         <v>-169300000</v>
       </c>
-      <c r="AF24">
+      <c r="AG25">
         <v>-42200000</v>
       </c>
-      <c r="AG24">
+      <c r="AH25">
         <v>-324900000</v>
       </c>
-      <c r="AH24">
+      <c r="AI25">
         <v>2175700000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ25">
         <v>312600000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK25">
         <v>403900000</v>
       </c>
-      <c r="AK24">
+      <c r="AL25">
         <v>118100000</v>
       </c>
-      <c r="AL24">
+      <c r="AM25">
         <v>1149000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN25">
         <v>51400000</v>
       </c>
-      <c r="AN24">
+      <c r="AO25">
         <v>256800000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>58400000</v>
+      </c>
+      <c r="C26">
         <v>50600000</v>
       </c>
-      <c r="C25">
+      <c r="D26">
         <v>55500000</v>
       </c>
-      <c r="D25">
+      <c r="E26">
         <v>48300000</v>
       </c>
-      <c r="E25">
+      <c r="F26">
         <v>55600000</v>
       </c>
-      <c r="F25">
+      <c r="G26">
         <v>42300000</v>
       </c>
-      <c r="G25">
+      <c r="H26">
         <v>48900000</v>
       </c>
-      <c r="H25">
+      <c r="I26">
         <v>45500000</v>
       </c>
-      <c r="I25">
+      <c r="J26">
         <v>47100000</v>
       </c>
-      <c r="J25">
+      <c r="K26">
         <v>33800000</v>
       </c>
-      <c r="K25">
+      <c r="L26">
         <v>24100000</v>
       </c>
-      <c r="L25">
+      <c r="M26">
         <v>33400000</v>
       </c>
-      <c r="M25">
+      <c r="N26">
         <v>36200000</v>
       </c>
-      <c r="N25">
+      <c r="O26">
         <v>37100000</v>
       </c>
-      <c r="O25">
+      <c r="P26">
         <v>45100000</v>
       </c>
-      <c r="P25">
+      <c r="Q26">
         <v>45200000</v>
       </c>
-      <c r="Q25">
+      <c r="R26">
         <v>38600000</v>
       </c>
-      <c r="R25">
+      <c r="S26">
         <v>38400000</v>
       </c>
-      <c r="S25">
+      <c r="T26">
         <v>56000000</v>
       </c>
-      <c r="T25">
+      <c r="U26">
         <v>41700000</v>
       </c>
-      <c r="U25">
+      <c r="V26">
         <v>38700000</v>
       </c>
-      <c r="V25">
+      <c r="W26">
         <v>39000000</v>
       </c>
-      <c r="W25">
+      <c r="X26">
         <v>37700000</v>
       </c>
-      <c r="X25">
+      <c r="Y26">
         <v>34300000</v>
       </c>
-      <c r="Y25">
+      <c r="Z26">
         <v>35800000</v>
       </c>
-      <c r="Z25">
+      <c r="AA26">
         <v>31100000</v>
       </c>
-      <c r="AA25">
+      <c r="AB26">
         <v>35200000</v>
       </c>
-      <c r="AB25">
+      <c r="AC26">
         <v>31700000</v>
       </c>
-      <c r="AC25">
+      <c r="AD26">
         <v>36000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE26">
         <v>34700000</v>
       </c>
-      <c r="AE25">
+      <c r="AF26">
         <v>32500000</v>
       </c>
-      <c r="AF25">
+      <c r="AG26">
         <v>35800000</v>
       </c>
-      <c r="AG25">
+      <c r="AH26">
         <v>36200000</v>
       </c>
-      <c r="AH25">
+      <c r="AI26">
         <v>38700000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ26">
         <v>30200000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK26">
         <v>30300000</v>
       </c>
-      <c r="AK25">
+      <c r="AL26">
         <v>33300000</v>
       </c>
-      <c r="AL25">
+      <c r="AM26">
         <v>23300000</v>
       </c>
-      <c r="AM25">
+      <c r="AN26">
         <v>3900000</v>
       </c>
-      <c r="AN25">
+      <c r="AO26">
         <v>27600000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27">
+        <v>-432600000</v>
+      </c>
+      <c r="C27">
         <v>-432900000</v>
       </c>
-      <c r="C26">
+      <c r="D27">
         <v>-434300000</v>
       </c>
-      <c r="D26">
+      <c r="E27">
         <v>-437700000</v>
       </c>
-      <c r="E26">
+      <c r="F27">
         <v>-393800000</v>
       </c>
-      <c r="F26">
+      <c r="G27">
         <v>-393200000</v>
       </c>
-      <c r="G26">
+      <c r="H27">
         <v>-396000000</v>
       </c>
-      <c r="H26">
+      <c r="I27">
         <v>-397800000</v>
       </c>
-      <c r="I26">
+      <c r="J27">
         <v>-390700000</v>
       </c>
-      <c r="J26">
+      <c r="K27">
         <v>-391000000</v>
       </c>
-      <c r="K26">
+      <c r="L27">
         <v>-391600000</v>
       </c>
-      <c r="L26">
+      <c r="M27">
         <v>-392900000</v>
       </c>
-      <c r="M26">
+      <c r="N27">
         <v>-342700000</v>
       </c>
-      <c r="N26">
+      <c r="O27">
         <v>-343300000</v>
       </c>
-      <c r="O26">
+      <c r="P27">
         <v>-343400000</v>
       </c>
-      <c r="P26">
+      <c r="Q27">
         <v>-344600000</v>
       </c>
-      <c r="Q26">
+      <c r="R27">
         <v>-302400000</v>
       </c>
-      <c r="R26">
+      <c r="S27">
         <v>-302600000</v>
       </c>
-      <c r="S26">
+      <c r="T27">
         <v>-278600000</v>
       </c>
-      <c r="T26">
+      <c r="U27">
         <v>-278400000</v>
       </c>
-      <c r="U26">
+      <c r="V27">
         <v>-253000000</v>
       </c>
-      <c r="V26">
+      <c r="W27">
         <v>-253700000</v>
       </c>
-      <c r="W26">
+      <c r="X27">
         <v>-255800000</v>
       </c>
-      <c r="X26">
+      <c r="Y27">
         <v>-257100000</v>
       </c>
-      <c r="Y26">
+      <c r="Z27">
         <v>-240500000</v>
       </c>
-      <c r="Z26">
+      <c r="AA27">
         <v>-241800000</v>
       </c>
-      <c r="AA26">
+      <c r="AB27">
         <v>-242400000</v>
       </c>
-      <c r="AB26">
+      <c r="AC27">
         <v>-242400000</v>
       </c>
-      <c r="AC26">
+      <c r="AD27">
         <v>-229800000</v>
       </c>
-      <c r="AD26">
+      <c r="AE27">
         <v>-229000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF27">
         <v>-231400000</v>
       </c>
-      <c r="AF26">
+      <c r="AG27">
         <v>-234900000</v>
       </c>
-      <c r="AG26">
+      <c r="AH27">
         <v>-231500000</v>
       </c>
-      <c r="AH26">
+      <c r="AI27">
         <v>-229800000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ27">
         <v>-231100000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK27">
         <v>-231200000</v>
       </c>
-      <c r="AK26">
+      <c r="AL27">
         <v>-210200000</v>
       </c>
-      <c r="AL26">
+      <c r="AM27">
         <v>-210600000</v>
       </c>
-      <c r="AM26">
+      <c r="AN27">
         <v>-210800000</v>
       </c>
-      <c r="AN26">
+      <c r="AO27">
         <v>-210400000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>0.0217</v>
       </c>
-      <c r="C27">
-        <v>0.0204</v>
-      </c>
-      <c r="D27">
+      <c r="D28">
+        <v>0.0203</v>
+      </c>
+      <c r="E28">
         <v>0.0153</v>
       </c>
-      <c r="E27">
-        <v>0.0129</v>
-      </c>
-      <c r="F27">
+      <c r="F28">
+        <v>0.013</v>
+      </c>
+      <c r="G28">
         <v>0.0182</v>
       </c>
-      <c r="G27">
+      <c r="H28">
         <v>0.0062</v>
       </c>
-      <c r="H27">
+      <c r="I28">
         <v>0.0025</v>
       </c>
-      <c r="I27">
+      <c r="J28">
         <v>0.0065</v>
       </c>
-      <c r="J27">
+      <c r="K28">
         <v>0.008</v>
       </c>
-      <c r="K27">
+      <c r="L28">
         <v>0.0015</v>
       </c>
-      <c r="L27">
+      <c r="M28">
         <v>0.005</v>
       </c>
-      <c r="M27">
+      <c r="N28">
         <v>0.0068</v>
       </c>
-      <c r="N27">
+      <c r="O28">
         <v>-0.0422</v>
       </c>
-      <c r="O27">
+      <c r="P28">
         <v>0.0005999999999999999</v>
       </c>
-      <c r="P27">
+      <c r="Q28">
         <v>0.0025</v>
       </c>
-      <c r="Q27">
+      <c r="R28">
         <v>-0.0137</v>
       </c>
-      <c r="R27">
+      <c r="S28">
         <v>0.0078</v>
       </c>
-      <c r="S27">
+      <c r="T28">
         <v>-0.0028</v>
       </c>
-      <c r="T27">
+      <c r="U28">
         <v>-0.0058</v>
       </c>
-      <c r="U27">
+      <c r="V28">
         <v>0.0045</v>
       </c>
-      <c r="V27">
+      <c r="W28">
         <v>-0.0075</v>
       </c>
-      <c r="W27">
+      <c r="X28">
         <v>-0.017</v>
       </c>
-      <c r="X27">
+      <c r="Y28">
         <v>-0.0217</v>
       </c>
-      <c r="Y27">
+      <c r="Z28">
         <v>-0.0152</v>
       </c>
-      <c r="Z27">
+      <c r="AA28">
         <v>-0.0203</v>
       </c>
-      <c r="AA27">
+      <c r="AB28">
         <v>-0.0282</v>
       </c>
-      <c r="AB27">
+      <c r="AC28">
         <v>-0.0235</v>
       </c>
-      <c r="AC27">
+      <c r="AD28">
         <v>-0.0213</v>
       </c>
-      <c r="AD27">
+      <c r="AE28">
         <v>-0.0327</v>
       </c>
-      <c r="AE27">
+      <c r="AF28">
         <v>-0.0437</v>
       </c>
-      <c r="AF27">
+      <c r="AG28">
         <v>-0.0453</v>
       </c>
-      <c r="AG27">
+      <c r="AH28">
         <v>-0.0489</v>
       </c>
-      <c r="AH27">
+      <c r="AI28">
         <v>-0.1269</v>
       </c>
-      <c r="AI27">
+      <c r="AJ28">
         <v>-0.1081</v>
       </c>
-      <c r="AJ27">
+      <c r="AK28">
         <v>-0.0518</v>
       </c>
-      <c r="AK27">
+      <c r="AL28">
         <v>-0.0376</v>
       </c>
-      <c r="AL27">
+      <c r="AM28">
         <v>-0.055</v>
       </c>
-      <c r="AM27">
+      <c r="AN28">
         <v>-0.0582</v>
       </c>
-      <c r="AN27">
+      <c r="AO28">
         <v>-0.0607</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>-360300000</v>
+      </c>
+      <c r="C29">
         <v>-527900000</v>
       </c>
-      <c r="C28">
+      <c r="D29">
         <v>-230200000</v>
       </c>
-      <c r="D28">
+      <c r="E29">
         <v>-330300000</v>
       </c>
-      <c r="E28">
+      <c r="F29">
         <v>-56100000</v>
       </c>
-      <c r="F28">
+      <c r="G29">
         <v>-1021700000</v>
       </c>
-      <c r="G28">
+      <c r="H29">
         <v>-109100000</v>
       </c>
-      <c r="H28">
+      <c r="I29">
         <v>50200000</v>
       </c>
-      <c r="I28">
+      <c r="J29">
         <v>-327600000</v>
       </c>
-      <c r="J28">
+      <c r="K29">
         <v>-550900000</v>
       </c>
-      <c r="K28">
+      <c r="L29">
         <v>-38500000</v>
       </c>
-      <c r="L28">
+      <c r="M29">
         <v>-139800000</v>
       </c>
-      <c r="M28">
+      <c r="N29">
         <v>-346500000</v>
       </c>
-      <c r="N28">
+      <c r="O29">
         <v>-595200000</v>
       </c>
-      <c r="O28">
+      <c r="P29">
         <v>-150100000</v>
       </c>
-      <c r="P28">
+      <c r="Q29">
         <v>-97500000</v>
       </c>
-      <c r="Q28">
+      <c r="R29">
         <v>-177800000</v>
       </c>
-      <c r="R28">
+      <c r="S29">
         <v>-780400000</v>
       </c>
-      <c r="S28">
+      <c r="T29">
         <v>-146000000</v>
       </c>
-      <c r="T28">
+      <c r="U29">
         <v>79800000</v>
       </c>
-      <c r="U28">
+      <c r="V29">
         <v>-389400000</v>
       </c>
-      <c r="V28">
+      <c r="W29">
         <v>-585900000</v>
       </c>
-      <c r="W28">
+      <c r="X29">
         <v>-828400000</v>
       </c>
-      <c r="X28">
+      <c r="Y29">
         <v>95400000</v>
       </c>
-      <c r="Y28">
+      <c r="Z29">
         <v>-21900000</v>
       </c>
-      <c r="Z28">
+      <c r="AA29">
         <v>-217000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB29">
         <v>258100000</v>
       </c>
-      <c r="AB28">
+      <c r="AC29">
         <v>55300000</v>
       </c>
-      <c r="AC28">
+      <c r="AD29">
         <v>-69400000</v>
       </c>
-      <c r="AD28">
+      <c r="AE29">
         <v>-372900000</v>
       </c>
-      <c r="AE28">
+      <c r="AF29">
         <v>40100000</v>
       </c>
-      <c r="AF28">
+      <c r="AG29">
         <v>260600000</v>
       </c>
-      <c r="AG28">
+      <c r="AH29">
         <v>-231600000</v>
       </c>
-      <c r="AH28">
+      <c r="AI29">
         <v>-218100000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ29">
         <v>121100000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK29">
         <v>156300000</v>
       </c>
-      <c r="AK28">
+      <c r="AL29">
         <v>-113500000</v>
       </c>
-      <c r="AL28">
+      <c r="AM29">
         <v>-307400000</v>
       </c>
-      <c r="AM28">
+      <c r="AN29">
         <v>198600000</v>
       </c>
-      <c r="AN28">
+      <c r="AO29">
         <v>-8000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>264400000</v>
+      </c>
+      <c r="C30">
         <v>-1445900000</v>
       </c>
-      <c r="C29">
+      <c r="D30">
         <v>-906400000</v>
       </c>
-      <c r="D29">
+      <c r="E30">
         <v>-2350700000</v>
       </c>
-      <c r="E29">
+      <c r="F30">
         <v>-2092900000</v>
       </c>
-      <c r="F29">
+      <c r="G30">
         <v>-1133500000</v>
       </c>
-      <c r="G29">
+      <c r="H30">
         <v>-1039200000</v>
       </c>
-      <c r="H29">
+      <c r="I30">
         <v>-1266400000</v>
       </c>
-      <c r="I29">
+      <c r="J30">
         <v>-1106200000</v>
       </c>
-      <c r="J29">
+      <c r="K30">
         <v>383900000</v>
       </c>
-      <c r="K29">
+      <c r="L30">
         <v>2888000200</v>
       </c>
-      <c r="L29">
+      <c r="M30">
         <v>735399900</v>
       </c>
-      <c r="M29">
+      <c r="N30">
         <v>-123900000</v>
       </c>
-      <c r="N29">
+      <c r="O30">
         <v>243799900</v>
       </c>
-      <c r="O29">
+      <c r="P30">
         <v>-878400000</v>
       </c>
-      <c r="P29">
+      <c r="Q30">
         <v>-497800000</v>
       </c>
-      <c r="Q29">
+      <c r="R30">
         <v>78600000</v>
       </c>
-      <c r="R29">
+      <c r="S30">
         <v>-216000000</v>
       </c>
-      <c r="S29">
+      <c r="T30">
         <v>-431600000</v>
       </c>
-      <c r="T29">
+      <c r="U30">
         <v>-402000000</v>
       </c>
-      <c r="U29">
+      <c r="V30">
         <v>-438600000</v>
       </c>
-      <c r="V29">
+      <c r="W30">
         <v>-149600000</v>
       </c>
-      <c r="W29">
+      <c r="X30">
         <v>-23799800</v>
       </c>
-      <c r="X29">
+      <c r="Y30">
         <v>-283899900</v>
       </c>
-      <c r="Y29">
+      <c r="Z30">
         <v>-210500000</v>
       </c>
-      <c r="Z29">
+      <c r="AA30">
         <v>-271000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB30">
         <v>-481199900</v>
       </c>
-      <c r="AB29">
+      <c r="AC30">
         <v>-404400000</v>
       </c>
-      <c r="AC29">
+      <c r="AD30">
         <v>-170800100</v>
       </c>
-      <c r="AD29">
+      <c r="AE30">
         <v>395500100</v>
       </c>
-      <c r="AE29">
+      <c r="AF30">
         <v>-457899800</v>
       </c>
-      <c r="AF29">
+      <c r="AG30">
         <v>-270000200</v>
       </c>
-      <c r="AG29">
+      <c r="AH30">
         <v>-179700000</v>
       </c>
-      <c r="AH29">
+      <c r="AI30">
         <v>-299000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ30">
         <v>-743000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK30">
         <v>-426600000</v>
       </c>
-      <c r="AK29">
+      <c r="AL30">
         <v>-388300000</v>
       </c>
-      <c r="AL29">
+      <c r="AM30">
         <v>202500000</v>
       </c>
-      <c r="AM29">
+      <c r="AN30">
         <v>-287899900</v>
       </c>
-      <c r="AN29">
+      <c r="AO30">
         <v>-652900100</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>-196400000</v>
+      </c>
+      <c r="C31">
         <v>-332300000</v>
       </c>
-      <c r="C30">
+      <c r="D31">
         <v>-464500000</v>
       </c>
-      <c r="D30">
+      <c r="E31">
         <v>-468300000</v>
       </c>
-      <c r="E30">
+      <c r="F31">
         <v>-395400000</v>
       </c>
-      <c r="F30">
+      <c r="G31">
         <v>-544700000</v>
       </c>
-      <c r="G30">
+      <c r="H31">
         <v>-439200000</v>
       </c>
-      <c r="H30">
+      <c r="I31">
         <v>-393000000</v>
       </c>
-      <c r="I30">
+      <c r="J31">
         <v>-214500000</v>
       </c>
-      <c r="J30">
+      <c r="K31">
         <v>-221500000</v>
       </c>
-      <c r="K30">
+      <c r="L31">
         <v>16700000</v>
       </c>
-      <c r="L30">
+      <c r="M31">
         <v>-353500000</v>
       </c>
-      <c r="M30">
+      <c r="N31">
         <v>-277700000</v>
       </c>
-      <c r="N30">
+      <c r="O31">
         <v>-341800000</v>
       </c>
-      <c r="O30">
+      <c r="P31">
         <v>-154700000</v>
       </c>
-      <c r="P30">
+      <c r="Q31">
         <v>-189000000</v>
       </c>
-      <c r="Q30">
+      <c r="R31">
         <v>-269600000</v>
       </c>
-      <c r="R30">
+      <c r="S31">
         <v>-251500000</v>
       </c>
-      <c r="S30">
+      <c r="T31">
         <v>-369900000</v>
       </c>
-      <c r="T30">
+      <c r="U31">
         <v>-136300000</v>
       </c>
-      <c r="U30">
+      <c r="V31">
         <v>-148600000</v>
       </c>
-      <c r="V30">
+      <c r="W31">
         <v>-265200000</v>
       </c>
-      <c r="W30">
+      <c r="X31">
         <v>-281600000</v>
       </c>
-      <c r="X30">
+      <c r="Y31">
         <v>-136200000</v>
       </c>
-      <c r="Y30">
+      <c r="Z31">
         <v>-403100000</v>
       </c>
-      <c r="Z30">
+      <c r="AA31">
         <v>-343000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB31">
         <v>-42100000</v>
       </c>
-      <c r="AB30">
+      <c r="AC31">
         <v>-268600000</v>
       </c>
-      <c r="AC30">
+      <c r="AD31">
         <v>-439600000</v>
       </c>
-      <c r="AD30">
+      <c r="AE31">
         <v>-330100000</v>
       </c>
-      <c r="AE30">
+      <c r="AF31">
         <v>-408200000</v>
       </c>
-      <c r="AF30">
+      <c r="AG31">
         <v>-606500000</v>
       </c>
-      <c r="AG30">
+      <c r="AH31">
         <v>-388700000</v>
       </c>
-      <c r="AH30">
+      <c r="AI31">
         <v>-44700000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ31">
         <v>-154300000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK31">
         <v>-4200000</v>
       </c>
-      <c r="AK30">
+      <c r="AL31">
         <v>-66500000</v>
       </c>
-      <c r="AL30">
+      <c r="AM31">
         <v>-248100000</v>
       </c>
-      <c r="AM30">
+      <c r="AN31">
         <v>-228900000</v>
       </c>
-      <c r="AN30">
+      <c r="AO31">
         <v>-35300000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>-332300000</v>
       </c>
-      <c r="C31">
+      <c r="D32">
         <v>-464500000</v>
       </c>
-      <c r="D31">
+      <c r="E32">
         <v>-468300000</v>
       </c>
-      <c r="E31">
+      <c r="F32">
         <v>-395400000</v>
       </c>
-      <c r="F31">
+      <c r="G32">
         <v>-544700000</v>
       </c>
-      <c r="G31">
+      <c r="H32">
         <v>-439200000</v>
       </c>
-      <c r="H31">
+      <c r="I32">
         <v>-393000000</v>
       </c>
-      <c r="I31">
+      <c r="J32">
         <v>-214500000</v>
       </c>
-      <c r="J31">
+      <c r="K32">
         <v>-221500000</v>
       </c>
-      <c r="K31">
+      <c r="L32">
         <v>16700000</v>
       </c>
-      <c r="L31">
+      <c r="M32">
         <v>-353500000</v>
       </c>
-      <c r="M31">
+      <c r="N32">
         <v>-277700000</v>
       </c>
-      <c r="N31">
+      <c r="O32">
         <v>-341800000</v>
       </c>
-      <c r="O31">
+      <c r="P32">
         <v>-154700000</v>
       </c>
-      <c r="P31">
+      <c r="Q32">
         <v>-189000000</v>
       </c>
-      <c r="Q31">
+      <c r="R32">
         <v>-269600000</v>
       </c>
-      <c r="R31">
+      <c r="S32">
         <v>-251500000</v>
       </c>
-      <c r="S31">
+      <c r="T32">
         <v>-369900000</v>
       </c>
-      <c r="T31">
+      <c r="U32">
         <v>-136300000</v>
       </c>
-      <c r="U31">
+      <c r="V32">
         <v>-148600000</v>
       </c>
-      <c r="V31">
+      <c r="W32">
         <v>-265200000</v>
       </c>
-      <c r="W31">
+      <c r="X32">
         <v>-281600000</v>
       </c>
-      <c r="X31">
+      <c r="Y32">
         <v>-136200000</v>
       </c>
-      <c r="Y31">
+      <c r="Z32">
         <v>-403100000</v>
       </c>
-      <c r="Z31">
+      <c r="AA32">
         <v>-343000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB32">
         <v>-42100000</v>
       </c>
-      <c r="AB31">
+      <c r="AC32">
         <v>-268600000</v>
       </c>
-      <c r="AC31">
+      <c r="AD32">
         <v>-439600000</v>
       </c>
-      <c r="AD31">
+      <c r="AE32">
         <v>-330100000</v>
       </c>
-      <c r="AE31">
+      <c r="AF32">
         <v>-408200000</v>
       </c>
-      <c r="AF31">
+      <c r="AG32">
         <v>-606500000</v>
       </c>
-      <c r="AG31">
+      <c r="AH32">
         <v>-388700000</v>
       </c>
-      <c r="AH31">
+      <c r="AI32">
         <v>-44700000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ32">
         <v>-154300000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK32">
         <v>-4200000</v>
       </c>
-      <c r="AK31">
+      <c r="AL32">
         <v>-66500000</v>
       </c>
-      <c r="AL31">
+      <c r="AM32">
         <v>-248100000</v>
       </c>
-      <c r="AM31">
+      <c r="AN32">
         <v>-228900000</v>
       </c>
-      <c r="AN31">
+      <c r="AO32">
         <v>-35300000</v>
       </c>
     </row>
